--- a/test-data/7월_용역자명단_간단.xlsx
+++ b/test-data/7월_용역자명단_간단.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7월 용역자명단" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-07 용역자명단" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,7 +26,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -38,8 +45,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -52,10 +59,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="00D3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D3D3D3"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,10 +81,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,16 +464,16 @@
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
@@ -537,224 +554,220 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>사장님</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>사장님</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-1111</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>750101-1111111</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>국민은행</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>111111111111</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr"/>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>김설계</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-1111</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>무배당 OK라이프건강보험</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>교보생명</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>서울지사</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2025-07-15</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>김영수</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>김영수</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-2222</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>800101-1111111</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>신한은행</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>111111111112</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>boss</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>사장님</t>
         </is>
       </c>
-      <c r="J3" s="3" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>010-1111-1111</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>800101-1234567</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>123-456-789012</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
         <is>
           <t>김설계</t>
         </is>
       </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-1111</t>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>010-9991-0001</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>무배당 하이라이프건강보험</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>삼성생명</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>경기지사</t>
+          <t>현대해상 암보험</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>서초지점</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>kim001</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>김영수</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>010-2222-2222</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>850202-1234567</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>신한은행</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>234-567-890123</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>사장님</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>010-1111-1111</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>이설계</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>010-9992-0002</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t>DB손해보험 운전자보험</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>송파지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>2025-07-31</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>lee001</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>이미영</t>
         </is>
       </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-3333</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>850101-2111111</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>010-3333-3333</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>900303-2234567</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>우리은행</t>
         </is>
       </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>111111111113</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>345-678-901234</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>사장님</t>
         </is>
       </c>
-      <c r="J4" s="3" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>010-1111-1111</t>
         </is>
       </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>김설계</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-1111</t>
-        </is>
-      </c>
-      <c r="M4" s="3" t="inlineStr">
-        <is>
-          <t>무배당 NEW건강사랑</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>한화생명</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>부산지사</t>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>박설계</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>010-9993-0003</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>KB손해보험 여행자보험</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>광화문지점</t>
         </is>
       </c>
     </row>

--- a/test-data/7월_용역자명단_간단.xlsx
+++ b/test-data/7월_용역자명단_간단.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,9 +554,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>사장님</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>사장님</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>800101-1234567</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>123-456-789012</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>김설계</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -565,44 +640,52 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>boss</t>
+          <t>김영수</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
+          <t>김영수</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>850202-1234567</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>신한은행</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>234-567-890123</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
           <t>사장님</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>010-1111-1111</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>800101-1234567</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>국민은행</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>123-456-789012</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>김설계</t>
+          <t>이설계</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>010-9991-0001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -623,7 +706,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -632,32 +715,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>kim001</t>
+          <t>이미영</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>김영수</t>
+          <t>이미영</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>010-2222-2222</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>850202-1234567</t>
+          <t>900303-2234567</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>234-567-890123</t>
+          <t>345-678-901234</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,17 +750,17 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-1111-1111</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>이설계</t>
+          <t>박설계</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>010-9992-0002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -693,81 +776,6 @@
       <c r="O4" s="2" t="inlineStr">
         <is>
           <t>송파지점</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>2025-07</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>lee001</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>010-3333-3333</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>900303-2234567</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>우리은행</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>345-678-901234</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>사장님</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>010-1111-1111</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>박설계</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>010-9993-0003</t>
-        </is>
-      </c>
-      <c r="M5" s="3" t="inlineStr">
-        <is>
-          <t>KB손해보험 여행자보험</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>KB손해보험</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>광화문지점</t>
         </is>
       </c>
     </row>
